--- a/biology/Écologie/Hypothèse_Médée/Hypothèse_Médée.xlsx
+++ b/biology/Écologie/Hypothèse_Médée/Hypothèse_Médée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypoth%C3%A8se_M%C3%A9d%C3%A9e</t>
+          <t>Hypothèse_Médée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hypothèse Médée est une théorie émanant du paléontologue américain Peter Ward en 2009 qui s'oppose à celle de James Lovelock nommée hypothèse Gaïa. Selon Ward, la vie, qui se considère comme un superorganisme, est suicidaire. Dans cette optique, les extinctions massives sont des tentatives suicidaires afin de revenir à un état biologique microbien, comme aux débuts de l'histoire de la Terre[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hypothèse Médée est une théorie émanant du paléontologue américain Peter Ward en 2009 qui s'oppose à celle de James Lovelock nommée hypothèse Gaïa. Selon Ward, la vie, qui se considère comme un superorganisme, est suicidaire. Dans cette optique, les extinctions massives sont des tentatives suicidaires afin de revenir à un état biologique microbien, comme aux débuts de l'histoire de la Terre,.
 Selon Ward, ces « tentatives suicidaires » sont :
 un empoisonnement par le méthane il y a 3,5 milliards d'années ;
 la grande catastrophe de l'oxygène il y a 2,7 milliards d'années ;
